--- a/inst/extdata/escaped-unicode.xlsx
+++ b/inst/extdata/escaped-unicode.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="23445" yWindow="6270" windowWidth="21600" windowHeight="11385" xr2:uid="{44CD0548-9089-42F5-9CF5-DEF3C1802003}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1&amp;" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
